--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1752575.228726157</v>
+        <v>1737646.561923671</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1861185.76878956</v>
+        <v>1861185.768789563</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2357862.325109816</v>
+        <v>2357862.325109811</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>356.3078701605422</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>95.04536685828202</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>169.0167291702126</v>
+        <v>132.934213732851</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>40.58025713289472</v>
+        <v>3.111202226368673</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>95.33023562355984</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.5708473530357</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>108.5609025698959</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>25.20874520428423</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>56.58072854101201</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>127.4811665772461</v>
+        <v>128.2632479134691</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,10 +1387,10 @@
         <v>413.3542113413185</v>
       </c>
       <c r="H11" t="n">
-        <v>319.5194584381684</v>
+        <v>319.5194584381683</v>
       </c>
       <c r="I11" t="n">
-        <v>135.3553342543435</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1897708139312</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>102.1665731007174</v>
       </c>
       <c r="I12" t="n">
-        <v>53.50170169071322</v>
+        <v>53.50170169071303</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>35.42807039329337</v>
+        <v>35.42807039329303</v>
       </c>
       <c r="S12" t="n">
         <v>152.3181986878413</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>83.05195484125467</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>167.1169375972939</v>
       </c>
       <c r="H13" t="n">
-        <v>154.4561466672649</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>129.1656554187738</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>260.9700762500381</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>151.3249029336695</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>40.38395457814235</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>412.9169039459368</v>
@@ -1627,7 +1627,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938905</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S15" t="n">
         <v>147.9721212459916</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>45.7330574133569</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>138.3488699256614</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>277.5948985960645</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
         <v>315.0408840752156</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>214.9991250339138</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664348</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958678</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183531</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>225.5650375952924</v>
       </c>
       <c r="V19" t="n">
-        <v>231.9602421584198</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>179.7188787253433</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>52.23166108617851</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,10 +2177,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664348</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958678</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183531</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S22" t="n">
-        <v>81.73016929549593</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>82.30024658262677</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>95.31089658769017</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>150.8277016661813</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>60.54139430664167</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>23.54872654977494</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>24.425271278902</v>
       </c>
       <c r="C31" t="n">
-        <v>143.6322711582022</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2970,7 +2970,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>178.0344873527947</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>94.16481274941243</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>29.83642804726142</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7644211441605784</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,16 +3717,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>135.2182982137615</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>147.6461444058331</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>110.6907158639456</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>51.93585215409378</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2091.914583926163</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="C2" t="n">
-        <v>1722.952066985752</v>
+        <v>1723.460330236796</v>
       </c>
       <c r="D2" t="n">
-        <v>1364.686368379001</v>
+        <v>1723.460330236796</v>
       </c>
       <c r="E2" t="n">
-        <v>978.8981157807568</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>567.9122109911493</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>149.9484028893362</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>149.9484028893362</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X2" t="n">
-        <v>2478.514423990285</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y2" t="n">
-        <v>2478.514423990285</v>
+        <v>2092.422847177208</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>593.8520006378978</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>593.8520006378978</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>593.8520006378978</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>593.8520006378978</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>593.8520006378978</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2656.158932298127</v>
+        <v>2694.006462506739</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.52426527019</v>
+        <v>2475.371795478802</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.52426527019</v>
+        <v>2221.610010116893</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.461377926619</v>
+        <v>1890.547122773323</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.692722656504</v>
+        <v>1537.778467503209</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.692722656504</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1164.312709242129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,19 +4670,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.1723320447965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>150.2361491168895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>150.2361491168895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>150.2361491168895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>150.2361491168895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>150.2361491168895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750362</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750362</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>500.8207968750362</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.8207968750362</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>581.5642672655068</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>163.6004591636937</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>163.6004591636937</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.202948062278</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.202948062278</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>2168.202948062278</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>261.3917961488083</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C10" t="n">
-        <v>261.3917961488083</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>261.3917961488083</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>261.3917961488083</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>261.3917961488083</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>261.3917961488083</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>261.3917961488083</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>261.3917961488083</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>261.3917961488083</v>
+        <v>670.9767331549069</v>
       </c>
       <c r="Y10" t="n">
-        <v>261.3917961488083</v>
+        <v>450.1841540113768</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1866.424453883942</v>
+        <v>2099.454392119182</v>
       </c>
       <c r="C11" t="n">
-        <v>1866.424453883942</v>
+        <v>1730.49187517877</v>
       </c>
       <c r="D11" t="n">
-        <v>1737.655598755411</v>
+        <v>1600.933038902539</v>
       </c>
       <c r="E11" t="n">
-        <v>1351.867346157166</v>
+        <v>1215.144786304294</v>
       </c>
       <c r="F11" t="n">
-        <v>940.8814413675588</v>
+        <v>804.1588815146868</v>
       </c>
       <c r="G11" t="n">
-        <v>523.3519349621865</v>
+        <v>386.6293751093145</v>
       </c>
       <c r="H11" t="n">
-        <v>200.6050072468649</v>
+        <v>63.88244739399288</v>
       </c>
       <c r="I11" t="n">
-        <v>63.88244739399264</v>
+        <v>63.88244739399288</v>
       </c>
       <c r="J11" t="n">
-        <v>215.7775870444384</v>
+        <v>215.7775870444398</v>
       </c>
       <c r="K11" t="n">
-        <v>564.1738308751512</v>
+        <v>564.1738308751537</v>
       </c>
       <c r="L11" t="n">
-        <v>1048.666806192619</v>
+        <v>1048.666806192623</v>
       </c>
       <c r="M11" t="n">
-        <v>1604.365138508506</v>
+        <v>1604.365138508512</v>
       </c>
       <c r="N11" t="n">
-        <v>2154.42325326017</v>
+        <v>2154.423253260179</v>
       </c>
       <c r="O11" t="n">
-        <v>2628.639895377765</v>
+        <v>2628.639895377775</v>
       </c>
       <c r="P11" t="n">
-        <v>2995.698445127827</v>
+        <v>2995.698445127838</v>
       </c>
       <c r="Q11" t="n">
-        <v>3194.122369699632</v>
+        <v>3194.122369699644</v>
       </c>
       <c r="R11" t="n">
-        <v>3194.122369699632</v>
+        <v>3194.122369699644</v>
       </c>
       <c r="S11" t="n">
-        <v>3194.122369699632</v>
+        <v>3194.122369699644</v>
       </c>
       <c r="T11" t="n">
-        <v>3194.122369699632</v>
+        <v>3194.122369699644</v>
       </c>
       <c r="U11" t="n">
-        <v>2940.395328473439</v>
+        <v>3194.122369699644</v>
       </c>
       <c r="V11" t="n">
-        <v>2609.332441129868</v>
+        <v>2863.059482356073</v>
       </c>
       <c r="W11" t="n">
-        <v>2256.563785859754</v>
+        <v>2863.059482356073</v>
       </c>
       <c r="X11" t="n">
-        <v>2256.563785859754</v>
+        <v>2489.593724094993</v>
       </c>
       <c r="Y11" t="n">
-        <v>1866.424453883942</v>
+        <v>2099.454392119182</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>117.924570313905</v>
       </c>
       <c r="I12" t="n">
-        <v>63.88244739399264</v>
+        <v>63.88244739399288</v>
       </c>
       <c r="J12" t="n">
-        <v>160.6567723009148</v>
+        <v>63.88244739399288</v>
       </c>
       <c r="K12" t="n">
-        <v>452.6803506693414</v>
+        <v>355.9060257624203</v>
       </c>
       <c r="L12" t="n">
-        <v>906.7464860204217</v>
+        <v>608.0454549215821</v>
       </c>
       <c r="M12" t="n">
-        <v>1488.599470699449</v>
+        <v>1189.898439600611</v>
       </c>
       <c r="N12" t="n">
-        <v>2101.559385912797</v>
+        <v>1802.85835481396</v>
       </c>
       <c r="O12" t="n">
-        <v>2595.882278642344</v>
+        <v>2297.181247543509</v>
       </c>
       <c r="P12" t="n">
         <v>2676.915881557612</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>897.8680081961015</v>
+        <v>379.5773823639173</v>
       </c>
       <c r="C13" t="n">
-        <v>897.8680081961015</v>
+        <v>379.5773823639173</v>
       </c>
       <c r="D13" t="n">
-        <v>813.9771447200867</v>
+        <v>379.5773823639173</v>
       </c>
       <c r="E13" t="n">
-        <v>666.0640511376936</v>
+        <v>379.5773823639173</v>
       </c>
       <c r="F13" t="n">
-        <v>519.1741036397832</v>
+        <v>232.687434866007</v>
       </c>
       <c r="G13" t="n">
-        <v>350.3691161677691</v>
+        <v>63.88244739399288</v>
       </c>
       <c r="H13" t="n">
-        <v>194.3528064028551</v>
+        <v>63.88244739399288</v>
       </c>
       <c r="I13" t="n">
-        <v>63.88244739399264</v>
+        <v>63.88244739399288</v>
       </c>
       <c r="J13" t="n">
-        <v>63.88244739399264</v>
+        <v>63.88244739399288</v>
       </c>
       <c r="K13" t="n">
-        <v>142.3679338555485</v>
+        <v>142.3679338555492</v>
       </c>
       <c r="L13" t="n">
-        <v>298.3287695220696</v>
+        <v>298.328769522071</v>
       </c>
       <c r="M13" t="n">
-        <v>473.1567265041798</v>
+        <v>473.1567265041819</v>
       </c>
       <c r="N13" t="n">
-        <v>649.2622818508059</v>
+        <v>649.2622818508087</v>
       </c>
       <c r="O13" t="n">
-        <v>795.9079702090237</v>
+        <v>795.907970209027</v>
       </c>
       <c r="P13" t="n">
-        <v>897.8680081961015</v>
+        <v>897.8680081961053</v>
       </c>
       <c r="Q13" t="n">
-        <v>897.8680081961015</v>
+        <v>897.8680081961053</v>
       </c>
       <c r="R13" t="n">
-        <v>897.8680081961015</v>
+        <v>897.8680081961053</v>
       </c>
       <c r="S13" t="n">
-        <v>897.8680081961015</v>
+        <v>897.8680081961053</v>
       </c>
       <c r="T13" t="n">
-        <v>897.8680081961015</v>
+        <v>897.8680081961053</v>
       </c>
       <c r="U13" t="n">
-        <v>897.8680081961015</v>
+        <v>897.8680081961053</v>
       </c>
       <c r="V13" t="n">
-        <v>897.8680081961015</v>
+        <v>643.1835199902184</v>
       </c>
       <c r="W13" t="n">
-        <v>897.8680081961015</v>
+        <v>379.5773823639173</v>
       </c>
       <c r="X13" t="n">
-        <v>897.8680081961015</v>
+        <v>379.5773823639173</v>
       </c>
       <c r="Y13" t="n">
-        <v>897.8680081961015</v>
+        <v>379.5773823639173</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2082.804004174234</v>
+        <v>2452.998035652587</v>
       </c>
       <c r="C14" t="n">
-        <v>1713.841487233823</v>
+        <v>2084.035518712175</v>
       </c>
       <c r="D14" t="n">
-        <v>1355.575788627072</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E14" t="n">
-        <v>969.7875360288278</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="F14" t="n">
         <v>928.9956627175729</v>
@@ -5275,55 +5275,55 @@
         <v>193.6847657265099</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266205</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403564</v>
+        <v>262.6316941403568</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604011</v>
+        <v>666.098807160402</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389912</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>2477.937544449759</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216836</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>3454.41379555613</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.374718827853</v>
+        <v>3543.374718827858</v>
       </c>
       <c r="T14" t="n">
-        <v>3543.374718827853</v>
+        <v>3543.374718827858</v>
       </c>
       <c r="U14" t="n">
-        <v>3543.374718827853</v>
+        <v>3289.683015573009</v>
       </c>
       <c r="V14" t="n">
-        <v>3212.311831484282</v>
+        <v>2958.620128229438</v>
       </c>
       <c r="W14" t="n">
-        <v>2859.543176214168</v>
+        <v>2605.851472959324</v>
       </c>
       <c r="X14" t="n">
-        <v>2859.543176214168</v>
+        <v>2605.851472959324</v>
       </c>
       <c r="Y14" t="n">
-        <v>2469.403844238356</v>
+        <v>2605.851472959324</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914995</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
         <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266205</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J15" t="n">
-        <v>73.9917951266205</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K15" t="n">
-        <v>141.599614789977</v>
+        <v>403.4201994324303</v>
       </c>
       <c r="L15" t="n">
-        <v>346.44509241223</v>
+        <v>907.7817392985485</v>
       </c>
       <c r="M15" t="n">
-        <v>986.990441879334</v>
+        <v>1087.279075653153</v>
       </c>
       <c r="N15" t="n">
-        <v>1660.196134132116</v>
+        <v>1760.484767905935</v>
       </c>
       <c r="O15" t="n">
-        <v>2209.632142884838</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P15" t="n">
-        <v>2633.599911365674</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R15" t="n">
         <v>2635.224952969837</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>370.6327006118921</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="C16" t="n">
-        <v>370.6327006118921</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="D16" t="n">
-        <v>370.6327006118921</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="E16" t="n">
-        <v>370.6327006118921</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="F16" t="n">
-        <v>370.6327006118921</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="G16" t="n">
-        <v>370.6327006118921</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="H16" t="n">
-        <v>216.3780575116571</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I16" t="n">
-        <v>91.8663828859833</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266205</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>175.0397247222303</v>
       </c>
       <c r="L16" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230485</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422863</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783905</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669892</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R16" t="n">
-        <v>943.4485153053656</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S16" t="n">
-        <v>736.008230557771</v>
+        <v>1027.731469097725</v>
       </c>
       <c r="T16" t="n">
-        <v>510.3790338701359</v>
+        <v>1027.731469097725</v>
       </c>
       <c r="U16" t="n">
-        <v>370.6327006118921</v>
+        <v>1027.731469097725</v>
       </c>
       <c r="V16" t="n">
-        <v>370.6327006118921</v>
+        <v>773.0469808918383</v>
       </c>
       <c r="W16" t="n">
-        <v>370.6327006118921</v>
+        <v>483.6298108548776</v>
       </c>
       <c r="X16" t="n">
-        <v>370.6327006118921</v>
+        <v>255.6402599568603</v>
       </c>
       <c r="Y16" t="n">
-        <v>370.6327006118921</v>
+        <v>255.6402599568603</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2196.616170759897</v>
+        <v>1553.356643322678</v>
       </c>
       <c r="C17" t="n">
-        <v>1827.653653819485</v>
+        <v>1553.356643322678</v>
       </c>
       <c r="D17" t="n">
-        <v>1469.387955212735</v>
+        <v>1195.090944715928</v>
       </c>
       <c r="E17" t="n">
-        <v>1083.599702614491</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="F17" t="n">
-        <v>672.6137978248832</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G17" t="n">
         <v>392.2149103541111</v>
       </c>
       <c r="H17" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I17" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403563</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K17" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604013</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M17" t="n">
         <v>1850.62987638991</v>
@@ -5545,22 +5545,22 @@
         <v>3699.589756331025</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331025</v>
+        <v>3484.789894598735</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.589756331025</v>
+        <v>3231.098191343886</v>
       </c>
       <c r="V17" t="n">
-        <v>3699.589756331025</v>
+        <v>2900.035304000316</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.821101060911</v>
+        <v>2547.266648730201</v>
       </c>
       <c r="X17" t="n">
-        <v>2973.355342799831</v>
+        <v>2330.095815362612</v>
       </c>
       <c r="Y17" t="n">
-        <v>2583.216010824019</v>
+        <v>1939.9564833868</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J18" t="n">
         <v>192.6510469835158</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>390.8410716369206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="C19" t="n">
-        <v>221.9048887090136</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="D19" t="n">
-        <v>221.9048887090136</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="E19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="F19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K19" t="n">
-        <v>175.03972472223</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230479</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422854</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783893</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669878</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P19" t="n">
         <v>1070.508157165603</v>
@@ -5706,19 +5706,19 @@
         <v>1073.926476585963</v>
       </c>
       <c r="U19" t="n">
-        <v>1073.926476585963</v>
+        <v>846.0830042674853</v>
       </c>
       <c r="V19" t="n">
-        <v>839.623201678468</v>
+        <v>591.3985160615985</v>
       </c>
       <c r="W19" t="n">
-        <v>839.623201678468</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="X19" t="n">
-        <v>611.6336507804507</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="Y19" t="n">
-        <v>390.8410716369206</v>
+        <v>73.99179512662049</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2196.616170759897</v>
+        <v>1650.753421684037</v>
       </c>
       <c r="C20" t="n">
-        <v>1827.653653819485</v>
+        <v>1281.790904743625</v>
       </c>
       <c r="D20" t="n">
-        <v>1469.387955212735</v>
+        <v>923.5252061368749</v>
       </c>
       <c r="E20" t="n">
-        <v>1083.599702614491</v>
+        <v>537.7369535386306</v>
       </c>
       <c r="F20" t="n">
-        <v>672.6137978248832</v>
+        <v>126.751048749023</v>
       </c>
       <c r="G20" t="n">
-        <v>255.5260160613107</v>
+        <v>126.751048749023</v>
       </c>
       <c r="H20" t="n">
-        <v>73.9917951266205</v>
+        <v>126.751048749023</v>
       </c>
       <c r="I20" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604011</v>
+        <v>666.0988071604013</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M20" t="n">
         <v>1850.62987638991</v>
@@ -5767,7 +5767,7 @@
         <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P20" t="n">
         <v>3454.413795556125</v>
@@ -5782,22 +5782,22 @@
         <v>3699.589756331025</v>
       </c>
       <c r="T20" t="n">
-        <v>3699.589756331025</v>
+        <v>3484.789894598735</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.589756331025</v>
+        <v>3484.789894598735</v>
       </c>
       <c r="V20" t="n">
-        <v>3699.589756331025</v>
+        <v>3153.727007255165</v>
       </c>
       <c r="W20" t="n">
-        <v>3346.821101060911</v>
+        <v>2800.95835198505</v>
       </c>
       <c r="X20" t="n">
-        <v>2973.355342799831</v>
+        <v>2427.49259372397</v>
       </c>
       <c r="Y20" t="n">
-        <v>2583.216010824019</v>
+        <v>2037.353261748159</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J21" t="n">
         <v>192.6510469835158</v>
@@ -5840,7 +5840,7 @@
         <v>1026.440991155443</v>
       </c>
       <c r="M21" t="n">
-        <v>1253.562877620961</v>
+        <v>1205.938327510047</v>
       </c>
       <c r="N21" t="n">
         <v>1452.219619273625</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>221.9048887090136</v>
+        <v>411.5348230591441</v>
       </c>
       <c r="C22" t="n">
-        <v>221.9048887090136</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="D22" t="n">
-        <v>221.9048887090136</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="E22" t="n">
-        <v>73.9917951266205</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="F22" t="n">
-        <v>73.9917951266205</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K22" t="n">
-        <v>175.03972472223</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L22" t="n">
-        <v>359.8727196230479</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422854</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783893</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669878</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P22" t="n">
         <v>1070.508157165603</v>
@@ -5934,28 +5934,28 @@
         <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>1073.926476585963</v>
+        <v>943.448515305365</v>
       </c>
       <c r="S22" t="n">
-        <v>991.3707500248557</v>
+        <v>943.448515305365</v>
       </c>
       <c r="T22" t="n">
-        <v>765.7415533372207</v>
+        <v>860.3169531006915</v>
       </c>
       <c r="U22" t="n">
-        <v>476.5893769149005</v>
+        <v>860.3169531006915</v>
       </c>
       <c r="V22" t="n">
-        <v>221.9048887090136</v>
+        <v>860.3169531006915</v>
       </c>
       <c r="W22" t="n">
-        <v>221.9048887090136</v>
+        <v>860.3169531006915</v>
       </c>
       <c r="X22" t="n">
-        <v>221.9048887090136</v>
+        <v>632.3274022026742</v>
       </c>
       <c r="Y22" t="n">
-        <v>221.9048887090136</v>
+        <v>411.5348230591441</v>
       </c>
     </row>
     <row r="23">
@@ -5965,58 +5965,58 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>807.3465877976907</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C25" t="n">
-        <v>638.4104048697839</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>488.2937654574481</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>340.380671875055</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>193.4907243771446</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1146.645046669231</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1146.645046669231</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.787631771461</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.787631771461</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.9950526279305</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>420.3226148324574</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324574</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W28" t="n">
-        <v>420.3226148324574</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X28" t="n">
-        <v>420.3226148324574</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y28" t="n">
-        <v>420.3226148324574</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,19 +6448,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6469,7 +6469,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>316.9584588710877</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4479.286098099606</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C31" t="n">
-        <v>4334.202995919603</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D31" t="n">
-        <v>4184.086356507268</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E31" t="n">
-        <v>4036.173262924875</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426964</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929845</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4660.934562929845</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>4660.934562929845</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W31" t="n">
-        <v>4660.934562929845</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X31" t="n">
-        <v>4660.934562929845</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y31" t="n">
-        <v>4660.934562929845</v>
+        <v>1054.338276203878</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4391.604587469457</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>4222.66840454155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>4072.551765129214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014291</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014291</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014291</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014291</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W34" t="n">
-        <v>4571.437402977331</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4571.437402977331</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4571.437402977331</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,22 +6922,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6982,7 +6982,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1045.073039154616</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>790.3885509487287</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>790.3885509487287</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="38">
@@ -7174,7 +7174,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>675.007103038344</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C40" t="n">
-        <v>675.007103038344</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D40" t="n">
-        <v>675.007103038344</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W40" t="n">
-        <v>675.007103038344</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X40" t="n">
-        <v>675.007103038344</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="Y40" t="n">
-        <v>675.007103038344</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="41">
@@ -7405,7 +7405,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,13 +7414,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>2801.004654415706</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3569.372800808168</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3899.2354284722</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1009.867621687013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1009.867621687013</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1009.867621687013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>1009.867621687013</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,19 +7736,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1689.561836756086</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2019.424464420119</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2298.964529638816</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.3055067228584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3055067228584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D46" t="n">
-        <v>413.3055067228584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1246.535803752148</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>957.4071649657059</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>702.722676759819</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>413.3055067228584</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>413.3055067228584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>413.3055067228584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>28.3391920000829</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>166.8739754126312</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>16.74455540879163</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.900745232382405</v>
+        <v>6.900745232381723</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928668</v>
+        <v>6.233205181928483</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>68.29886828945425</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>82.48338126429371</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>48.10560617264096</v>
+        <v>48.10560617264125</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>48.10560617264085</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>48.10560617264125</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>29.47535963978262</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>29.47535963978228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978186</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>32.78140656352457</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>227.2018750434369</v>
+        <v>226.4197937072138</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>135.3553342543431</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.47001067514606</v>
+        <v>27.47001067514543</v>
       </c>
       <c r="S11" t="n">
-        <v>164.6180294004008</v>
+        <v>164.6180294004006</v>
       </c>
       <c r="T11" t="n">
         <v>214.5661762382494</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1897708139312</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>65.56351817695769</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,13 +23433,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>154.4561466672649</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>129.1656554187737</v>
       </c>
       <c r="J13" t="n">
-        <v>31.5644276023186</v>
+        <v>31.56442760231828</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.97296450542765</v>
+        <v>12.97296450542727</v>
       </c>
       <c r="R13" t="n">
-        <v>137.9932954615213</v>
+        <v>137.9932954615211</v>
       </c>
       <c r="S13" t="n">
-        <v>208.7844338901268</v>
+        <v>208.7844338901267</v>
       </c>
       <c r="T13" t="n">
         <v>224.2110473578499</v>
@@ -23475,10 +23475,10 @@
         <v>286.2713543513364</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>25.55292208655288</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>231.4089387298111</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>366.4920911635691</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,13 +23670,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>159.6328244867618</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>147.9117847324356</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>135.3220053498723</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>154.7319756445553</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23913,7 +23913,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176918</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677914</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S19" t="n">
         <v>205.3658819001187</v>
@@ -23946,19 +23946,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>60.69561706280456</v>
       </c>
       <c r="V19" t="n">
-        <v>20.17740116540824</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>135.3220053498723</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938906</v>
+        <v>66.26437980771206</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>152.7120966692326</v>
@@ -24150,7 +24150,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176918</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>123.6357126046228</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>141.0726581381319</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>71.18267187568742</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>70.71985939220792</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>105.9521741567359</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>228.588916774053</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>155.4067089030353</v>
       </c>
       <c r="C31" t="n">
-        <v>23.61454994042563</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.797492829142612</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>256.4009243513159</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>145.6695415024086</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>90.49135717527562</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>19.60067669279474</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>69.14126431799171</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>169.6117089042955</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>728898.3541823493</v>
+        <v>728898.3541823504</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>784825.761257414</v>
+        <v>784825.7612574144</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>784825.7612574138</v>
+        <v>784825.7612574139</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>375886.4510185155</v>
+        <v>375886.4510185163</v>
       </c>
       <c r="F2" t="n">
-        <v>405282.786831988</v>
+        <v>405282.7868319884</v>
       </c>
       <c r="G2" t="n">
-        <v>405282.786831988</v>
+        <v>405282.7868319879</v>
       </c>
       <c r="H2" t="n">
         <v>405282.786831988</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="L2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="M2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="L2" t="n">
-        <v>469234.8716852506</v>
-      </c>
-      <c r="M2" t="n">
-        <v>469234.8716852504</v>
-      </c>
       <c r="N2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>123022.0575261896</v>
+        <v>123022.0575261925</v>
       </c>
       <c r="F3" t="n">
-        <v>122192.1638359304</v>
+        <v>122192.1638359286</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>30961.93223513057</v>
+        <v>30961.93223513124</v>
       </c>
       <c r="N3" t="n">
-        <v>30950.65265136682</v>
+        <v>30950.65265136637</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,10 +26426,10 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>9025.043319411185</v>
+        <v>9025.043319411176</v>
       </c>
       <c r="F4" t="n">
-        <v>8673.279618076551</v>
+        <v>8673.279618076547</v>
       </c>
       <c r="G4" t="n">
         <v>8673.279618076551</v>
@@ -26438,28 +26438,28 @@
         <v>8673.279618076551</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>59117.03032849808</v>
+        <v>59117.03032849832</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360147</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>261848.9351392394</v>
       </c>
       <c r="D6" t="n">
-        <v>261848.9351392395</v>
+        <v>261848.9351392396</v>
       </c>
       <c r="E6" t="n">
-        <v>184722.3198444165</v>
+        <v>179858.211056912</v>
       </c>
       <c r="F6" t="n">
-        <v>205245.8000943797</v>
+        <v>201606.5386324408</v>
       </c>
       <c r="G6" t="n">
-        <v>327437.96393031</v>
+        <v>323798.7024683703</v>
       </c>
       <c r="H6" t="n">
-        <v>327437.9639303101</v>
+        <v>323798.7024683691</v>
       </c>
       <c r="I6" t="n">
-        <v>113798.654481427</v>
+        <v>112824.0632217052</v>
       </c>
       <c r="J6" t="n">
-        <v>192907.5948879334</v>
+        <v>191933.0036282117</v>
       </c>
       <c r="K6" t="n">
-        <v>369330.8140805265</v>
+        <v>368356.2228208047</v>
       </c>
       <c r="L6" t="n">
-        <v>369330.8140805265</v>
+        <v>368356.2228208047</v>
       </c>
       <c r="M6" t="n">
-        <v>338368.8818453958</v>
+        <v>337394.2905856736</v>
       </c>
       <c r="N6" t="n">
-        <v>338380.1614291595</v>
+        <v>337405.5701694384</v>
       </c>
       <c r="O6" t="n">
-        <v>369330.8140805265</v>
+        <v>368356.2228208051</v>
       </c>
       <c r="P6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208047</v>
       </c>
     </row>
   </sheetData>
@@ -26737,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>484.6958857368658</v>
+        <v>484.6958857368683</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380635</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380635</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>798.530592424908</v>
+        <v>798.530592424911</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827575</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.9522215197791</v>
+        <v>106.9522215197817</v>
       </c>
       <c r="F3" t="n">
-        <v>108.7802146011978</v>
+        <v>108.7802146011962</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-6.765505698301703e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>124.2433196703525</v>
+        <v>124.2433196703554</v>
       </c>
       <c r="F4" t="n">
-        <v>126.3668466578482</v>
+        <v>126.3668466578465</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>290.3162041708171</v>
+        <v>290.3162041708169</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>124.2433196703527</v>
+        <v>124.2433196703554</v>
       </c>
       <c r="N4" t="n">
-        <v>126.3668466578483</v>
+        <v>126.3668466578465</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>124.2433196703525</v>
+        <v>124.2433196703554</v>
       </c>
       <c r="N4" t="n">
-        <v>126.3668466578482</v>
+        <v>126.3668466578465</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>25.62249991171961</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>56.88594938657923</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27438,7 +27438,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>56.01837628787166</v>
+        <v>92.10089172523328</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>133.8354556760768</v>
+        <v>171.3045105826029</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>60.8406532182353</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>28.98780970275092</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.1629943104449</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>43.37041367496531</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>142.1010570547667</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>169.1289268480251</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.948526173816544</v>
+        <v>1.948526173816555</v>
       </c>
       <c r="H11" t="n">
-        <v>19.95534367759869</v>
+        <v>19.95534367759879</v>
       </c>
       <c r="I11" t="n">
-        <v>75.12055531606241</v>
+        <v>75.12055531606279</v>
       </c>
       <c r="J11" t="n">
-        <v>165.3787233449621</v>
+        <v>165.378723344963</v>
       </c>
       <c r="K11" t="n">
-        <v>247.8598362826165</v>
+        <v>247.8598362826177</v>
       </c>
       <c r="L11" t="n">
-        <v>307.4920441745546</v>
+        <v>307.4920441745562</v>
       </c>
       <c r="M11" t="n">
-        <v>342.1441465181646</v>
+        <v>342.1441465181663</v>
       </c>
       <c r="N11" t="n">
-        <v>347.6803965095208</v>
+        <v>347.6803965095227</v>
       </c>
       <c r="O11" t="n">
-        <v>328.3047393686326</v>
+        <v>328.3047393686343</v>
       </c>
       <c r="P11" t="n">
-        <v>280.2004994525366</v>
+        <v>280.2004994525381</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.4189058527315</v>
+        <v>210.4189058527326</v>
       </c>
       <c r="R11" t="n">
-        <v>122.3991072660036</v>
+        <v>122.3991072660043</v>
       </c>
       <c r="S11" t="n">
-        <v>44.40204018584456</v>
+        <v>44.40204018584478</v>
       </c>
       <c r="T11" t="n">
-        <v>8.529673325881928</v>
+        <v>8.529673325881973</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1558820939053235</v>
+        <v>0.1558820939053243</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.042553414603825</v>
+        <v>1.04255341460383</v>
       </c>
       <c r="H12" t="n">
-        <v>10.06887113577904</v>
+        <v>10.0688711357791</v>
       </c>
       <c r="I12" t="n">
-        <v>35.89493116070186</v>
+        <v>35.89493116070204</v>
       </c>
       <c r="J12" t="n">
-        <v>98.49843466658329</v>
+        <v>98.49843466658379</v>
       </c>
       <c r="K12" t="n">
-        <v>168.3495134450395</v>
+        <v>168.3495134450404</v>
       </c>
       <c r="L12" t="n">
-        <v>226.3666964472033</v>
+        <v>226.3666964472044</v>
       </c>
       <c r="M12" t="n">
-        <v>264.1592577265918</v>
+        <v>264.1592577265932</v>
       </c>
       <c r="N12" t="n">
-        <v>271.1507672482114</v>
+        <v>271.1507672482128</v>
       </c>
       <c r="O12" t="n">
-        <v>248.0499784298845</v>
+        <v>248.0499784298858</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0819761623742</v>
+        <v>199.0819761623752</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.0810288536391</v>
+        <v>133.0810288536398</v>
       </c>
       <c r="R12" t="n">
-        <v>64.72976375934977</v>
+        <v>64.72976375935011</v>
       </c>
       <c r="S12" t="n">
-        <v>19.36497241599647</v>
+        <v>19.36497241599657</v>
       </c>
       <c r="T12" t="n">
-        <v>4.202221877284712</v>
+        <v>4.202221877284734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06858904043446218</v>
+        <v>0.06858904043446253</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8740417611648399</v>
+        <v>0.8740417611648444</v>
       </c>
       <c r="H13" t="n">
-        <v>7.771025840174673</v>
+        <v>7.771025840174714</v>
       </c>
       <c r="I13" t="n">
-        <v>26.28481950848447</v>
+        <v>26.2848195084846</v>
       </c>
       <c r="J13" t="n">
-        <v>61.79475251435418</v>
+        <v>61.7947525143545</v>
       </c>
       <c r="K13" t="n">
-        <v>101.5477609789696</v>
+        <v>101.5477609789701</v>
       </c>
       <c r="L13" t="n">
-        <v>129.9461723826345</v>
+        <v>129.9461723826352</v>
       </c>
       <c r="M13" t="n">
-        <v>137.0100189796848</v>
+        <v>137.0100189796856</v>
       </c>
       <c r="N13" t="n">
-        <v>133.7522269607978</v>
+        <v>133.7522269607985</v>
       </c>
       <c r="O13" t="n">
-        <v>123.541830023554</v>
+        <v>123.5418300235546</v>
       </c>
       <c r="P13" t="n">
-        <v>105.7113780957911</v>
+        <v>105.7113780957917</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.18907874626673</v>
+        <v>73.18907874626711</v>
       </c>
       <c r="R13" t="n">
-        <v>39.30009591564816</v>
+        <v>39.30009591564836</v>
       </c>
       <c r="S13" t="n">
-        <v>15.23216414684543</v>
+        <v>15.23216414684551</v>
       </c>
       <c r="T13" t="n">
-        <v>3.734542070431588</v>
+        <v>3.734542070431607</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04767500515444587</v>
+        <v>0.04767500515444612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712522</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I15" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900645</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947069</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784621</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L16" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522783</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198244</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H17" t="n">
         <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651536</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J17" t="n">
         <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779013</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712521</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074814</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N17" t="n">
-        <v>425.7102483359659</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822508</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426692</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.643184845757</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810503</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916532</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U17" t="n">
         <v>0.1908666855358594</v>
@@ -32320,16 +32320,16 @@
         <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512815</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M18" t="n">
         <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900644</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947069</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P18" t="n">
         <v>243.7619099671567</v>
@@ -32338,16 +32338,16 @@
         <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080783</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S18" t="n">
         <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308303</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,16 +32387,16 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838206991</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784122</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490359</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790238</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L19" t="n">
         <v>159.1099695889949</v>
@@ -32405,7 +32405,7 @@
         <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441087</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O19" t="n">
         <v>151.2683017714133</v>
@@ -32414,19 +32414,19 @@
         <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104759</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937805</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S19" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522782</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198244</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H20" t="n">
         <v>24.43391804055151</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651536</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J20" t="n">
         <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779013</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712521</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074814</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N20" t="n">
-        <v>425.7102483359659</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822508</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426692</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.643184845757</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810503</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916532</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U20" t="n">
         <v>0.1908666855358594</v>
@@ -32557,16 +32557,16 @@
         <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512815</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M21" t="n">
         <v>323.4444746842445</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900644</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947069</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P21" t="n">
         <v>243.7619099671567</v>
@@ -32575,16 +32575,16 @@
         <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080783</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S21" t="n">
         <v>23.7110498578462</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308303</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,16 +32624,16 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206991</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784122</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490359</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790238</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L22" t="n">
         <v>159.1099695889949</v>
@@ -32642,7 +32642,7 @@
         <v>167.7591540676922</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441087</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O22" t="n">
         <v>151.2683017714133</v>
@@ -32651,19 +32651,19 @@
         <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104759</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937805</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S22" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522782</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>153.4294339903496</v>
+        <v>153.4294339903504</v>
       </c>
       <c r="K11" t="n">
-        <v>351.9153978088007</v>
+        <v>351.9153978088019</v>
       </c>
       <c r="L11" t="n">
-        <v>489.3868437550178</v>
+        <v>489.3868437550194</v>
       </c>
       <c r="M11" t="n">
-        <v>561.3114467837244</v>
+        <v>561.3114467837261</v>
       </c>
       <c r="N11" t="n">
-        <v>555.6142573249141</v>
+        <v>555.6142573249159</v>
       </c>
       <c r="O11" t="n">
-        <v>479.0067092096912</v>
+        <v>479.0067092096929</v>
       </c>
       <c r="P11" t="n">
-        <v>370.7662118687497</v>
+        <v>370.7662118687512</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.4282066381867</v>
+        <v>200.4282066381878</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>97.75184334032544</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>294.9733114832591</v>
+        <v>294.97331148326</v>
       </c>
       <c r="L12" t="n">
-        <v>458.6526619707882</v>
+        <v>254.6862920799614</v>
       </c>
       <c r="M12" t="n">
-        <v>587.7302875545734</v>
+        <v>587.7302875545747</v>
       </c>
       <c r="N12" t="n">
-        <v>619.1514295084316</v>
+        <v>619.151429508433</v>
       </c>
       <c r="O12" t="n">
-        <v>499.3160532621696</v>
+        <v>499.3160532621709</v>
       </c>
       <c r="P12" t="n">
-        <v>81.8521241568356</v>
+        <v>383.5703373879821</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>79.27826915308671</v>
+        <v>79.27826915308724</v>
       </c>
       <c r="L13" t="n">
-        <v>157.5361976429506</v>
+        <v>157.5361976429513</v>
       </c>
       <c r="M13" t="n">
-        <v>176.5938959415254</v>
+        <v>176.5938959415261</v>
       </c>
       <c r="N13" t="n">
-        <v>177.8843993400264</v>
+        <v>177.8843993400271</v>
       </c>
       <c r="O13" t="n">
-        <v>148.1269579375937</v>
+        <v>148.1269579375943</v>
       </c>
       <c r="P13" t="n">
-        <v>102.9899373606846</v>
+        <v>102.9899373606852</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>190.5453525391274</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>407.542538404086</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517159</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730412</v>
+        <v>638.0987989730419</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513599</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233101</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>433.6515619588828</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>247.6524856312126</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268336</v>
+        <v>332.7559639452622</v>
       </c>
       <c r="L15" t="n">
-        <v>206.9146238608616</v>
+        <v>509.4561008748669</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122262</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502846</v>
+        <v>680.0057497502852</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269919</v>
+        <v>243.6069294145567</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>428.250271192764</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.9666072747238</v>
+        <v>233.0438950105732</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854531</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391271</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040855</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517153</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730411</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N17" t="n">
         <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233095</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588823</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312122</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748665</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M18" t="n">
         <v>181.3104407622262</v>
       </c>
       <c r="N18" t="n">
-        <v>248.7689815793721</v>
+        <v>248.7689815793723</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269919</v>
@@ -35983,7 +35983,7 @@
         <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0438950105729</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,22 +36047,22 @@
         <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493111</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M19" t="n">
         <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233373</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O19" t="n">
         <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369852</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353202</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391271</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040855</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517153</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730411</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N20" t="n">
         <v>633.6441091513591</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233095</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588823</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312122</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>332.7559639452619</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748665</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M21" t="n">
-        <v>229.4160469348671</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N21" t="n">
-        <v>200.6633754067311</v>
+        <v>248.7689815793723</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269919</v>
@@ -36220,7 +36220,7 @@
         <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105729</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493111</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M22" t="n">
         <v>207.3430310295328</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233373</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O22" t="n">
         <v>175.853429685453</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369852</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353202</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>180.0507982277215</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958061</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38104,7 +38104,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>239.8748214950492</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
